--- a/CORTES DE CAJA/2026/1) ENERO/LISTA DE LAS VENTAS SEMANA 4 DE ENERO.xlsx
+++ b/CORTES DE CAJA/2026/1) ENERO/LISTA DE LAS VENTAS SEMANA 4 DE ENERO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BA729-468C-46E0-9644-BE0230AE3068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D165308F-2C2D-4496-80DA-89CAF643AAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lunes 26-01-26" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Miercoles 28 -01-25" sheetId="3" r:id="rId3"/>
     <sheet name="Jueves 29 -01-26" sheetId="4" r:id="rId4"/>
     <sheet name="Viernes 30-01-26" sheetId="5" r:id="rId5"/>
-    <sheet name="Sabado" sheetId="6" r:id="rId6"/>
+    <sheet name="Sabado31 -01-26" sheetId="6" r:id="rId6"/>
     <sheet name="Domingo" sheetId="8" r:id="rId7"/>
     <sheet name="Cambios" sheetId="7" r:id="rId8"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="141">
   <si>
     <t>Producto</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Jueves 01-02-03</t>
-  </si>
-  <si>
-    <t>Sabado 01-02-03</t>
   </si>
   <si>
     <t>Cambio</t>
@@ -734,6 +731,66 @@
 TOTAL EN CAJA $ 15870.5 </t>
     </r>
   </si>
+  <si>
+    <t>Sabado 31 DE ENERO-26</t>
+  </si>
+  <si>
+    <t>PIPET DE CARBURADOR DM200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALATA TRASERA DE ATV ITALIKA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOCO DIRECCIONAL </t>
+  </si>
+  <si>
+    <t>BALATA DE TAMBOR DS150</t>
+  </si>
+  <si>
+    <t>BARRA DE POSAPIER FT150</t>
+  </si>
+  <si>
+    <t>BOTON DE DIRECCIONAL DS150</t>
+  </si>
+  <si>
+    <t>FOCO H6  HALOGENO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDA </t>
+  </si>
+  <si>
+    <t>TORNILLOS FT150</t>
+  </si>
+  <si>
+    <t>SEGURO DE PIÑON</t>
+  </si>
+  <si>
+    <t>FILTRO DE ACEITE FZ16</t>
+  </si>
+  <si>
+    <t>BIRLOS DE FT150</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CUENTA DE AYER $ 15870.5 MENOS $ 485 DE LUZ QUEDA $ 15385.5  
+CUENTA DE HOY SABADO $ 1416 MENOS $ 300 PAGO DE YAS QUEDA $ 1116 MAS LO DE CAJA $ 15385.5 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TOTAL EN CAJA $ 16501.5 </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -745,7 +802,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="167" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,6 +897,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1089,6 +1154,27 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1128,26 +1214,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1157,9 +1225,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1753,50 +1818,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla1[Importa])</f>
         <v>1696.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -1814,32 +1879,32 @@
         <v>4</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>17</v>
       </c>
-      <c r="M4" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1851,28 +1916,28 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="J5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C36" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1884,26 +1949,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>12</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1912,32 +1977,32 @@
         <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>237.5</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1946,32 +2011,32 @@
         <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>237.5</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1980,32 +2045,32 @@
         <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2014,32 +2079,32 @@
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2048,32 +2113,32 @@
         <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>43.5</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2082,32 +2147,32 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="5">
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>34.5</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2119,26 +2184,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2150,26 +2215,26 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>185</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2181,24 +2246,24 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>80</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2210,24 +2275,24 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>161</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2239,24 +2304,24 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>48</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2268,24 +2333,24 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>68</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2297,24 +2362,24 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2326,24 +2391,24 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>200</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2355,12 +2420,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>48</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -2375,12 +2440,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -2409,14 +2474,14 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
+      <c r="M24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -2431,12 +2496,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -2451,18 +2516,18 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G26))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="38"/>
+      <c r="O26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="31"/>
-      <c r="O26" s="14" t="s">
+      <c r="P26" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -2477,16 +2542,16 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M27" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="23">
+      <c r="M27" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="27"/>
+      <c r="O27" s="30">
         <v>10382</v>
       </c>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="27"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -2501,12 +2566,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G28))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="37"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -2521,16 +2586,16 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G29))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="23">
+      <c r="M29" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="27"/>
+      <c r="O29" s="30">
         <v>8020</v>
       </c>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="27"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="34"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -2545,12 +2610,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G30))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="37"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -2565,12 +2630,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G31))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="27"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -2585,12 +2650,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G32))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="30"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="37"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -2605,12 +2670,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G33))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="27"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -2625,12 +2690,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G34))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="30"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="37"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -2645,12 +2710,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G35))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="27"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="34"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -2665,12 +2730,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G36))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M36" s="21"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="30"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="37"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -2685,12 +2750,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G37))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="27"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -2705,12 +2770,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G38))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M38" s="21"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="30"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="37"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -2725,12 +2790,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G39))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="27"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="34"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -2745,12 +2810,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G40))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="30"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="37"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -2765,12 +2830,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G41))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="27"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="34"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -2785,12 +2850,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G42))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M42" s="21"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="30"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="37"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -2805,12 +2870,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G43))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="27"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="34"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -2825,12 +2890,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G44))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M44" s="21"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="30"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="37"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -2845,12 +2910,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G45))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="27"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="34"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="str">
@@ -2865,12 +2930,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G46))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M46" s="21"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="30"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="37"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="str">
@@ -2885,12 +2950,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G47))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="27"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="34"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="str">
@@ -2905,12 +2970,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G48))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M48" s="21"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="30"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="37"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="str">
@@ -2925,12 +2990,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G49))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="27"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="34"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="str">
@@ -2945,12 +3010,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G50))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M50" s="21"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="30"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="37"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="str">
@@ -2965,12 +3030,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G51))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="27"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="34"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="str">
@@ -2985,12 +3050,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G52))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M52" s="21"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="30"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="37"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="str">
@@ -3709,19 +3774,33 @@
   </sheetData>
   <autoFilter ref="B4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="48">
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P41:R42"/>
-    <mergeCell ref="P43:R44"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:R50"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:R52"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:R46"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:R48"/>
+    <mergeCell ref="P31:R32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="P39:R40"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="M39:N40"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N28"/>
@@ -3730,33 +3809,19 @@
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="P29:R30"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P31:R32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="P37:R38"/>
-    <mergeCell ref="P39:R40"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:R46"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:R48"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:R50"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:R52"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P41:R42"/>
+    <mergeCell ref="P43:R44"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="13" priority="1">
@@ -3800,50 +3865,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla110[Importa])</f>
         <v>2851.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -3861,30 +3926,30 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>21</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla110[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3896,28 +3961,28 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="J5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3926,32 +3991,32 @@
         <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>32.5</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3960,32 +4025,32 @@
         <v>1050</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>945</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3994,32 +4059,32 @@
         <v>190</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>171</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4028,32 +4093,32 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4062,32 +4127,32 @@
         <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>54</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4099,26 +4164,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>47</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4130,26 +4195,26 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4158,32 +4223,32 @@
         <v>276</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>248.5</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4192,32 +4257,32 @@
         <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>79.5</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4229,24 +4294,24 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4255,30 +4320,30 @@
         <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>121.5</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4290,24 +4355,24 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>56</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4316,30 +4381,30 @@
         <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4348,30 +4413,30 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>54</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4380,30 +4445,30 @@
         <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4412,18 +4477,18 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -4435,7 +4500,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4444,18 +4509,18 @@
         <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" s="5">
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -4467,7 +4532,7 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4490,7 +4555,7 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4502,14 +4567,14 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>350</v>
       </c>
-      <c r="M24" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="M24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -4521,7 +4586,7 @@
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4533,12 +4598,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>132</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -4554,17 +4619,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -4581,10 +4646,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -4601,10 +4666,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -4621,10 +4686,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -4641,10 +4706,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -4661,10 +4726,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -4681,10 +4746,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -4701,10 +4766,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -4721,10 +4786,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -4741,10 +4806,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -4761,10 +4826,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -4781,10 +4846,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -4801,10 +4866,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -4821,10 +4886,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -4841,10 +4906,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -4861,10 +4926,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -4881,10 +4946,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -4901,10 +4966,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -4921,10 +4986,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -5754,32 +5819,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="11" priority="1">
@@ -5802,7 +5867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -5822,50 +5887,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla111[Importa])</f>
         <v>2142.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -5883,30 +5948,30 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>18</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla111[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -5918,28 +5983,28 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>110</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="J5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -5951,26 +6016,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C7">
         <f>IF(ISNUMBER(E7), IF(ISNUMBER(C6), C6+1, 1), "")</f>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -5979,32 +6044,32 @@
         <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>117</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C68" si="1">IF(ISNUMBER(E8), IF(ISNUMBER(C7), C7+1, 1), "")</f>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -6013,32 +6078,32 @@
         <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -6047,32 +6112,32 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -6081,32 +6146,32 @@
         <v>350</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>315</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -6115,32 +6180,32 @@
         <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>76.5</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -6152,26 +6217,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -6183,26 +6248,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -6214,26 +6279,26 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>40</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -6242,30 +6307,30 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>38</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -6274,30 +6339,30 @@
         <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>108</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -6306,30 +6371,30 @@
         <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>166.5</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -6338,30 +6403,30 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31.5</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -6373,24 +6438,24 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>100</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -6402,24 +6467,24 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -6428,18 +6493,18 @@
         <v>550</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>495</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -6451,7 +6516,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -6460,18 +6525,18 @@
         <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" s="5">
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -6500,14 +6565,14 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="M24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -6522,12 +6587,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -6543,17 +6608,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -6570,10 +6635,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -6590,10 +6655,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -6610,10 +6675,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -6630,10 +6695,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -6650,10 +6715,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -6670,10 +6735,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -6690,10 +6755,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -6710,10 +6775,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -6730,10 +6795,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -6750,10 +6815,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -6770,10 +6835,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -6790,10 +6855,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -6810,10 +6875,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -6830,10 +6895,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -6850,10 +6915,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -6870,10 +6935,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -6890,10 +6955,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -6910,10 +6975,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -7743,32 +7808,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="9" priority="1">
@@ -7811,50 +7876,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla112[Importa])</f>
         <v>2124.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -7872,32 +7937,32 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>19</v>
       </c>
-      <c r="M4" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla112[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -7909,28 +7974,28 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>125</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="J5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7942,26 +8007,26 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>70</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -7973,26 +8038,26 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>12</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -8001,32 +8066,32 @@
         <v>690</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>621</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -8035,32 +8100,32 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>9</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -8069,32 +8134,32 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>22.5</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -8106,26 +8171,26 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>120</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -8134,32 +8199,32 @@
         <v>160</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>144</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -8168,32 +8233,32 @@
         <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>29</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -8205,26 +8270,26 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -8236,24 +8301,24 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>123</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -8265,24 +8330,24 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -8294,24 +8359,24 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -8323,24 +8388,24 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>125</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -8352,24 +8417,24 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -8378,30 +8443,30 @@
         <v>250</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>225</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -8410,18 +8475,18 @@
         <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="5">
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>189</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -8433,7 +8498,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -8445,12 +8510,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>93</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -8462,7 +8527,7 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -8488,14 +8553,14 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="M24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -8510,12 +8575,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -8531,17 +8596,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -8557,15 +8622,15 @@
         <v/>
       </c>
       <c r="M27" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N27" s="15">
         <v>256</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -8581,15 +8646,15 @@
         <v/>
       </c>
       <c r="M28" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N28" s="15">
         <v>70</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -8606,10 +8671,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -8626,10 +8691,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -8646,10 +8711,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -8666,10 +8731,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -8686,10 +8751,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -8706,10 +8771,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -8726,10 +8791,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -8746,10 +8811,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -8766,10 +8831,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -8786,10 +8851,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -8806,10 +8871,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -8826,10 +8891,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -8846,10 +8911,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -8866,10 +8931,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -8886,10 +8951,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -8906,10 +8971,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -9739,32 +9804,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="7" priority="1">
@@ -9808,50 +9873,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla113[Importa])</f>
         <v>1743.5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -9869,32 +9934,32 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>11</v>
       </c>
-      <c r="M4" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla113[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -9903,34 +9968,34 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>31</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="J5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -9942,26 +10007,26 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>299</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -9970,32 +10035,32 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>43.5</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -10007,26 +10072,26 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>75</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -10035,32 +10100,32 @@
         <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>63</v>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -10069,32 +10134,32 @@
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -10103,32 +10168,32 @@
         <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>78.5</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -10137,32 +10202,32 @@
         <v>600</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>540</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -10174,26 +10239,26 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>115</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -10205,26 +10270,26 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>177</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -10233,23 +10298,23 @@
         <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="5">
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>270</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -10259,17 +10324,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -10279,17 +10344,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -10299,17 +10364,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -10319,17 +10384,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -10339,17 +10404,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -10359,12 +10424,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -10379,12 +10444,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -10413,14 +10478,14 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="M24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -10435,12 +10500,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -10456,17 +10521,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -10482,17 +10547,17 @@
         <v/>
       </c>
       <c r="M27" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N27" s="15">
         <v>10382</v>
       </c>
-      <c r="O27" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -10508,17 +10573,17 @@
         <v/>
       </c>
       <c r="M28" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N28" s="15">
         <v>8020</v>
       </c>
-      <c r="O28" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -10534,17 +10599,17 @@
         <v/>
       </c>
       <c r="M29" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N29" s="15">
         <v>256</v>
       </c>
-      <c r="O29" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -10560,17 +10625,17 @@
         <v/>
       </c>
       <c r="M30" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N30" s="15">
         <v>70</v>
       </c>
-      <c r="O30" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -10586,17 +10651,17 @@
         <v/>
       </c>
       <c r="M31" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N31" s="15">
         <v>5097</v>
       </c>
-      <c r="O31" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -10612,17 +10677,17 @@
         <v/>
       </c>
       <c r="M32" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N32" s="15">
         <v>342</v>
       </c>
-      <c r="O32" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -10638,17 +10703,17 @@
         <v/>
       </c>
       <c r="M33" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N33" s="15">
         <v>175</v>
       </c>
-      <c r="O33" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -10664,17 +10729,17 @@
         <v/>
       </c>
       <c r="M34" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N34" s="15">
         <v>66</v>
       </c>
-      <c r="O34" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -10690,17 +10755,17 @@
         <v/>
       </c>
       <c r="M35" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N35" s="15">
         <v>1500</v>
       </c>
-      <c r="O35" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -10716,17 +10781,17 @@
         <v/>
       </c>
       <c r="M36" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N36" s="15">
         <v>25908</v>
       </c>
-      <c r="O36" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -10743,10 +10808,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -10763,10 +10828,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -10783,10 +10848,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -10803,10 +10868,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -10823,10 +10888,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -10843,10 +10908,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -10863,10 +10928,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -10883,10 +10948,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -11716,32 +11781,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -11764,8 +11829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:R103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11784,50 +11849,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla114[Importa])</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="37" t="s">
+        <v>1416</v>
+      </c>
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -11845,380 +11910,547 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+        <v>17</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="18">
         <f ca="1">IF(Tabla114[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v/>
-      </c>
-      <c r="C5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
-        <v/>
-      </c>
-      <c r="H5" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H6" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>42</v>
+      </c>
+      <c r="H6" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+        <v>42</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H7" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+        <v>12</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H8" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>123</v>
+      </c>
+      <c r="H8" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+        <v>123</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>96</v>
+      </c>
+      <c r="H9" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+        <v>96</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H10" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>36</v>
+      </c>
+      <c r="H10" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+        <v>36</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H11" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>266</v>
+      </c>
+      <c r="H11" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+        <v>266</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H12" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+        <v>36</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H13" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+        <v>13.5</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H14" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="H14" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+        <v>40</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+        <v>22.5</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H16" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+        <v>10</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H17" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>266</v>
+      </c>
+      <c r="H17" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+        <v>266</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="H18" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+        <v>200</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+      <c r="H19" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+        <v>32</v>
+      </c>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H20" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>123</v>
+      </c>
+      <c r="H20" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+        <v>123</v>
+      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H21" s="5" t="str">
+        <v>46053.810948148152</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="H21" s="5">
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
-        <v/>
-      </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -12233,12 +12465,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -12267,14 +12499,14 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="M24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -12289,12 +12521,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -12310,17 +12542,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -12335,12 +12567,16 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="M27" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="N27" s="15">
+        <v>485</v>
+      </c>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -12357,10 +12593,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -12377,10 +12613,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -12397,10 +12633,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -12417,10 +12653,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -12437,10 +12673,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -12457,10 +12693,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -12477,10 +12713,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -12497,10 +12733,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -12517,10 +12753,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -12537,10 +12773,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -12557,10 +12793,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -12577,10 +12813,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -12597,10 +12833,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -12617,10 +12853,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -12637,10 +12873,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -12657,10 +12893,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -12677,10 +12913,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -13510,32 +13746,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -13578,50 +13814,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6">
         <f>SUM(Tabla115[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -13639,18 +13875,18 @@
         <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="10">
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -13665,21 +13901,21 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="J5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -13689,19 +13925,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -13711,19 +13947,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -13733,19 +13969,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -13755,19 +13991,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -13777,19 +14013,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -13799,19 +14035,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -13821,19 +14057,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -13843,19 +14079,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -13865,19 +14101,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -13887,17 +14123,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -13907,17 +14143,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -13927,17 +14163,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -13947,17 +14183,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -13967,17 +14203,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -13987,17 +14223,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46052.801266666669</v>
+        <v>46053.810948148152</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -14007,12 +14243,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -14027,12 +14263,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="str">
@@ -14061,14 +14297,14 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="M24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="str">
@@ -14083,12 +14319,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -14104,17 +14340,17 @@
         <v/>
       </c>
       <c r="M26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="O26" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -14131,10 +14367,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -14151,10 +14387,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -14171,10 +14407,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -14191,10 +14427,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -14211,10 +14447,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -14231,10 +14467,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -14251,10 +14487,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -14271,10 +14507,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -14291,10 +14527,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -14311,10 +14547,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -14331,10 +14567,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -14351,10 +14587,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -14371,10 +14607,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -14391,10 +14627,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -14411,10 +14647,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -14431,10 +14667,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -14451,10 +14687,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -14471,10 +14707,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -15304,32 +15540,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -15363,18 +15599,18 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>45576</v>
@@ -15386,10 +15622,10 @@
     </row>
     <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
         <v>1.2</v>
@@ -15398,7 +15634,7 @@
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>45778</v>
